--- a/Documentos/Excel/backlog-grupo3.xlsx
+++ b/Documentos/Excel/backlog-grupo3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25108"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B738745B-FC95-4B70-B0E8-E72996AD1F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00BDC65B-34E6-4948-B49E-340E3EF7B524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Desejável, importante, essencial</t>
   </si>
@@ -65,13 +65,22 @@
   </si>
   <si>
     <t>Cliente Linux</t>
+  </si>
+  <si>
+    <t>Tela de Cadastro</t>
+  </si>
+  <si>
+    <t>Tela de login</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,18 +94,29 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
+      <sz val="9.5"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +153,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -198,15 +224,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -218,40 +262,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -576,7 +611,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="D15" sqref="D15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -610,7 +645,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -631,14 +666,14 @@
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
@@ -646,16 +681,16 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
@@ -676,14 +711,14 @@
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="16" t="s">
@@ -691,14 +726,14 @@
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="18"/>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13" t="s">
@@ -706,14 +741,14 @@
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="13" t="s">
@@ -721,14 +756,14 @@
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="16" t="s">
@@ -736,113 +771,125 @@
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
+      <c r="A12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
+      <c r="A13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
+      <c r="A14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -859,18 +906,12 @@
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="D11:I11"/>
-    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D20:I20"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D16:I16"/>
     <mergeCell ref="D17:I17"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="D8:I8"/>
     <mergeCell ref="D12:I12"/>
@@ -879,11 +920,17 @@
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="D9:I9"/>
     <mergeCell ref="D10:I10"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:I2"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D4:I4"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentos/Excel/backlog-grupo3.xlsx
+++ b/Documentos/Excel/backlog-grupo3.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25108"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00BDC65B-34E6-4948-B49E-340E3EF7B524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm\Desktop\PI 2adsc\quatro\Documentos\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Desejável, importante, essencial</t>
   </si>
@@ -37,50 +41,53 @@
     <t>Importante</t>
   </si>
   <si>
-    <t>Modelagem de banco</t>
-  </si>
-  <si>
-    <t>StoryBoard</t>
-  </si>
-  <si>
-    <t>Diagrama de solução</t>
-  </si>
-  <si>
-    <t>Proto-persona</t>
-  </si>
-  <si>
     <t>Essencial</t>
   </si>
   <si>
-    <t>Site Institucional</t>
-  </si>
-  <si>
-    <t>User story</t>
-  </si>
-  <si>
-    <t>Documentação</t>
-  </si>
-  <si>
-    <t>Ambiente Azure</t>
-  </si>
-  <si>
-    <t>Cliente Linux</t>
-  </si>
-  <si>
     <t>Tela de Cadastro</t>
   </si>
   <si>
     <t>Tela de login</t>
   </si>
   <si>
-    <t>Dashboard</t>
+    <t>Alerta de quando os picos forem alcançados</t>
+  </si>
+  <si>
+    <t>Acesso facil e seguro no site</t>
+  </si>
+  <si>
+    <t>Armazenamento dos dados em geral</t>
+  </si>
+  <si>
+    <t>Alerta de quando tiver estabilidade no servidor</t>
+  </si>
+  <si>
+    <t>Monitoramento do site para evitar futuros problemas</t>
+  </si>
+  <si>
+    <t>Dashboard para o acompanhamento dos picos</t>
+  </si>
+  <si>
+    <t>Mapa de calor para saber o ponto em que os usuarios mais acessam o site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garantir estabilidade para o sistema </t>
+  </si>
+  <si>
+    <t>Tela de Cadastro para funcionarios</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Garantir a melhoria para o crescimento do projeto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,7 +123,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,18 +156,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFCE4D6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -220,73 +221,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -607,292 +654,323 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:I15"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
+    <col min="4" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="30.5703125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5">
-      <c r="A3" s="7" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5">
-      <c r="A6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="10" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="20"/>
       <c r="C20" s="21"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="12"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="D18:I18"/>
     <mergeCell ref="D19:I19"/>
@@ -909,28 +987,6 @@
     <mergeCell ref="D20:I20"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
